--- a/Sprint 1/Package 1/Documentation/P01_JE_03_Version.xlsx
+++ b/Sprint 1/Package 1/Documentation/P01_JE_03_Version.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>CodeVersion</t>
   </si>
@@ -34,6 +34,9 @@
   </si>
   <si>
     <t>DateSortiePrevue</t>
+  </si>
+  <si>
+    <t>IDJeu</t>
   </si>
 </sst>
 </file>
@@ -372,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -386,9 +389,10 @@
     <col min="4" max="4" width="23.88671875" customWidth="1"/>
     <col min="5" max="5" width="25.44140625" customWidth="1"/>
     <col min="6" max="6" width="27.44140625" customWidth="1"/>
+    <col min="7" max="7" width="28.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -406,6 +410,9 @@
       </c>
       <c r="F1" t="s">
         <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
